--- a/Smartphone Camera Sensoren Physik.xlsx
+++ b/Smartphone Camera Sensoren Physik.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaile.LUXOFT\source\repos\2025_compareCamera\smartphoneCompareCamera\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDA51B-B6AC-464F-ABBE-7E450D249C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId4"/>
-    <sheet name="Sensoren" sheetId="2" state="visible" r:id="rId5"/>
-    <sheet name="Linsen" sheetId="3" state="visible" r:id="rId6"/>
-    <sheet name="HandyBestückung" sheetId="4" state="visible" r:id="rId7"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensoren" sheetId="2" r:id="rId2"/>
+    <sheet name="Linsen" sheetId="3" r:id="rId3"/>
+    <sheet name="HandyBestückung" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="223">
   <si>
     <t>Größe</t>
   </si>
@@ -36,13 +53,13 @@
     <t>Sensoren</t>
   </si>
   <si>
-    <t xml:space="preserve">V_max = D_max / f</t>
+    <t>V_max = D_max / f</t>
   </si>
   <si>
     <t>0,98"</t>
   </si>
   <si>
-    <t xml:space="preserve">V= D/f = D/D/f/D=1/k</t>
+    <t>V= D/f = D/D/f/D=1/k</t>
   </si>
   <si>
     <t>1"</t>
@@ -57,7 +74,7 @@
     <t>1/1,22"</t>
   </si>
   <si>
-    <t xml:space="preserve">Doppelte Blendezahl , vierfache Belichtungszeit</t>
+    <t>Doppelte Blendezahl , vierfache Belichtungszeit</t>
   </si>
   <si>
     <t>1/1,28"</t>
@@ -72,16 +89,16 @@
     <t>1/1,37"</t>
   </si>
   <si>
-    <t xml:space="preserve">Faktor Wurzel 2in Blendenreihe weil Lichteinfall von von Fläche abhängig , dass heißt von f=1,4  zu f=2.0 braucht man doppelte Belichtungszeit</t>
+    <t>Faktor Wurzel 2in Blendenreihe weil Lichteinfall von von Fläche abhängig , dass heißt von f=1,4  zu f=2.0 braucht man doppelte Belichtungszeit</t>
   </si>
   <si>
     <t>1/1,4"</t>
   </si>
   <si>
-    <t xml:space="preserve">2/3" (4:3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/3" (16:9)</t>
+    <t>2/3" (4:3)</t>
+  </si>
+  <si>
+    <t>2/3" (16:9)</t>
   </si>
   <si>
     <t>Blendenreihe</t>
@@ -135,19 +152,19 @@
     <t>1/3,6"</t>
   </si>
   <si>
-    <t xml:space="preserve">Four Thrirds</t>
+    <t>Four Thrirds</t>
   </si>
   <si>
     <t>APS-C</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein Objektiv mit Blendenzahl 2 hat bei 50mm Brennweite eine effektiefe Öffnungsweite von 25mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein 135mm f=2,0 Objektiv aber schon 67,5mm</t>
+    <t>Ein Objektiv mit Blendenzahl 2 hat bei 50mm Brennweite eine effektiefe Öffnungsweite von 25mm</t>
+  </si>
+  <si>
+    <t>Full Frame</t>
+  </si>
+  <si>
+    <t>Ein 135mm f=2,0 Objektiv aber schon 67,5mm</t>
   </si>
   <si>
     <t>Medium</t>
@@ -156,10 +173,10 @@
     <t xml:space="preserve">Was ist 1/2,76" als Größe? </t>
   </si>
   <si>
-    <t xml:space="preserve">Es gibt die Diagonale an, wobei das " für Zoll steht und einfach multipliziert wird. Also 1/2,76 * 2,54.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn da nicht das optischeFormat wäre. für Sensoren größer als 1/2" gibt es einen korrekturfaktor 1,5875 für alle kleineren von 1,4111</t>
+    <t>Es gibt die Diagonale an, wobei das " für Zoll steht und einfach multipliziert wird. Also 1/2,76 * 2,54.</t>
+  </si>
+  <si>
+    <t>Wenn da nicht das optischeFormat wäre. für Sensoren größer als 1/2" gibt es einen korrekturfaktor 1,5875 für alle kleineren von 1,4111</t>
   </si>
   <si>
     <t>manufacture</t>
@@ -399,7 +416,7 @@
     <t>LYT-800</t>
   </si>
   <si>
-    <t xml:space="preserve">LYT-701 (IMX890)</t>
+    <t>LYT-701 (IMX890)</t>
   </si>
   <si>
     <t>1/1,56"</t>
@@ -408,7 +425,7 @@
     <t>LYT-700</t>
   </si>
   <si>
-    <t xml:space="preserve">LYT-600 (IMX882)</t>
+    <t>LYT-600 (IMX882)</t>
   </si>
   <si>
     <t>1/1.953"</t>
@@ -522,16 +539,16 @@
     <t>Omnivision</t>
   </si>
   <si>
-    <t xml:space="preserve">Light Hunter 400</t>
+    <t>Light Hunter 400</t>
   </si>
   <si>
     <t>1/2,88"</t>
   </si>
   <si>
-    <t xml:space="preserve">Omnivision OV40A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Hunter 800</t>
+    <t>Omnivision OV40A</t>
+  </si>
+  <si>
+    <t>Light Hunter 800</t>
   </si>
   <si>
     <t>OV64B</t>
@@ -567,7 +584,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t xml:space="preserve">Tele 1.</t>
+    <t>Tele 1.</t>
   </si>
   <si>
     <t xml:space="preserve">Tele 2. </t>
@@ -588,28 +605,28 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Vivo X200 Ultra</t>
+    <t>Vivo X200 Ultra</t>
   </si>
   <si>
     <t>HP9</t>
   </si>
   <si>
-    <t xml:space="preserve">Tele 38% mehr licht durch blende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vivo X200 Pro</t>
+    <t>Tele 38% mehr licht durch blende</t>
+  </si>
+  <si>
+    <t>Vivo X200 Pro</t>
   </si>
   <si>
     <t>JN1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vivo X100 Ultra</t>
+    <t>Vivo X100 Ultra</t>
   </si>
   <si>
     <t>LYT-600</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiaomi 15 Ultra</t>
+    <t>Xiaomi 15 Ultra</t>
   </si>
   <si>
     <t>JN5</t>
@@ -618,25 +635,25 @@
     <t>OV32B</t>
   </si>
   <si>
-    <t xml:space="preserve">Mi 11 Ultra</t>
+    <t>Mi 11 Ultra</t>
   </si>
   <si>
     <t>S5K3T2</t>
   </si>
   <si>
-    <t xml:space="preserve">Oppo Find X8 Ultra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Tele 251% mehr licht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oppo Find X7 Ultra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find X8 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S25 Ultra</t>
+    <t>Oppo Find X8 Ultra</t>
+  </si>
+  <si>
+    <t>2.Tele 251% mehr licht</t>
+  </si>
+  <si>
+    <t>Oppo Find X7 Ultra</t>
+  </si>
+  <si>
+    <t>Find X8 Pro</t>
+  </si>
+  <si>
+    <t>S25 Ultra</t>
   </si>
   <si>
     <t>HP2</t>
@@ -645,22 +662,22 @@
     <t>S5K3LU</t>
   </si>
   <si>
-    <t xml:space="preserve">Oneplus 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Iphone 16 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMX 903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Pixel 10 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Pixel 9 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor Magic 7 Pro</t>
+    <t>Oneplus 13</t>
+  </si>
+  <si>
+    <t>Apple Iphone 16 Pro</t>
+  </si>
+  <si>
+    <t>IMX 903</t>
+  </si>
+  <si>
+    <t>Google Pixel 10 Pro</t>
+  </si>
+  <si>
+    <t>Google Pixel 9 Pro</t>
+  </si>
+  <si>
+    <t>Honor Magic 7 Pro</t>
   </si>
   <si>
     <t>OV50H</t>
@@ -669,31 +686,34 @@
     <t>HP3</t>
   </si>
   <si>
-    <t xml:space="preserve">Huawei Pura 70 Ultra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorola Edge 50 Ultra</t>
+    <t>Huawei Pura 70 Ultra</t>
+  </si>
+  <si>
+    <t>Motorola Edge 50 Ultra</t>
   </si>
   <si>
     <t>1,6</t>
   </si>
   <si>
-    <t xml:space="preserve">Sony Xperia 1 VI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nubia Z70 Ultra</t>
+    <t>Sony Xperia 1 VI</t>
+  </si>
+  <si>
+    <t>Nubia Z70 Ultra</t>
   </si>
   <si>
     <t>LH400</t>
+  </si>
+  <si>
+    <t>IMX809</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -709,43 +729,29 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -763,291 +769,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1270,28 +993,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:M44"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="K33" activeCellId="0" sqref="K33"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.44140625"/>
-    <col customWidth="1" min="7" max="7" width="15.875"/>
-    <col customWidth="1" min="12" max="12" width="20"/>
-    <col customWidth="1" min="13" max="13" width="20.6640625"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1051,6 @@
       <c r="D7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7">
         <v>128</v>
       </c>
@@ -1341,13 +1062,13 @@
         <v>15.9</v>
       </c>
       <c r="I7">
-        <v>2.6499999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="L7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1355,14 +1076,13 @@
         <v>11.42</v>
       </c>
       <c r="D8">
-        <v>8.5600000000000005</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>8.56</v>
+      </c>
       <c r="F8">
-        <v>97.879999999999995</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1370,17 +1090,16 @@
         <v>10.48</v>
       </c>
       <c r="D9">
-        <v>7.8600000000000003</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>7.86</v>
+      </c>
       <c r="F9">
-        <v>82.459999999999994</v>
+        <v>82.46</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1109,6 @@
       <c r="D10">
         <v>7.5</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10">
         <v>75</v>
       </c>
@@ -1404,22 +1122,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="D11">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>7.2</v>
+      </c>
       <c r="F11">
-        <v>69.120000000000005</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1427,12 +1144,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1440,27 +1157,25 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D14">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>6.6</v>
+      </c>
       <c r="F14">
-        <v>58.100000000000001</v>
+        <v>58.1</v>
       </c>
       <c r="H14">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="D15">
-        <v>5.4000000000000004</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>5.4</v>
+      </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
@@ -1468,74 +1183,73 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16">
-        <v>8.2599999999999998</v>
+        <v>8.26</v>
       </c>
       <c r="D16">
-        <v>6.1900000000000004</v>
+        <v>6.19</v>
       </c>
       <c r="H16">
-        <v>10.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="D17">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="F17">
         <v>43.32</v>
       </c>
       <c r="I17">
-        <v>4.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="L17">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M17">
         <f>L16*SQRT(2)</f>
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>7.1799999999999997</v>
+        <v>7.18</v>
       </c>
       <c r="D18">
-        <v>5.3200000000000003</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>5.32</v>
+      </c>
       <c r="H18">
-        <v>8.9299999999999997</v>
+        <v>8.93</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="L19">
-        <v>1.3999999999999999</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1543,43 +1257,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="D21">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>4.8</v>
+      </c>
       <c r="F21">
-        <v>30.719999999999999</v>
+        <v>30.72</v>
       </c>
       <c r="H21">
         <v>8</v>
       </c>
       <c r="L21">
-        <v>2.7999999999999998</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>6.2599999999999998</v>
+        <v>6.26</v>
       </c>
       <c r="D22">
-        <v>4.7000000000000002</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>4.7</v>
+      </c>
       <c r="F22">
         <v>29</v>
       </c>
       <c r="H22">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="I22">
         <v>5.5</v>
@@ -1588,53 +1300,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="L23">
-        <v>5.5999999999999996</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24">
-        <v>5.7599999999999998</v>
+        <v>5.76</v>
       </c>
       <c r="D24">
-        <v>4.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="F24">
         <v>24.883199999999999</v>
       </c>
       <c r="H24">
-        <v>7.1200000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="L24">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25">
-        <v>5.2699999999999996</v>
+        <v>5.27</v>
       </c>
       <c r="D25">
         <v>3.96</v>
       </c>
-      <c r="E25" s="1"/>
       <c r="H25">
-        <v>6.5899999999999999</v>
+        <v>6.59</v>
       </c>
       <c r="L25">
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -1642,9 +1353,8 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="D26">
-        <v>3.3300000000000001</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>3.33</v>
+      </c>
       <c r="F26">
         <v>16.190000000000001</v>
       </c>
@@ -1652,7 +1362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1660,19 +1370,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="C28">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="D28">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>3.6</v>
+      </c>
       <c r="F28">
-        <v>17.300000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -1681,7 +1390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -1691,18 +1400,17 @@
       <c r="D29">
         <v>3.4159999999999999</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29">
         <v>15.5</v>
       </c>
       <c r="H29">
-        <v>5.6799999999999997</v>
+        <v>5.68</v>
       </c>
       <c r="L29">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1420,6 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="1"/>
       <c r="F30">
         <v>12</v>
       </c>
@@ -1720,23 +1427,23 @@
         <v>5</v>
       </c>
       <c r="I30">
-        <v>8.6500000000000004</v>
+        <v>8.65</v>
       </c>
       <c r="L30">
         <v>64</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L31">
         <v>90</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L32">
         <v>128</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1453,6 @@
       <c r="D33">
         <v>13.1</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33">
         <v>227</v>
       </c>
@@ -1757,22 +1463,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>23.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="D34">
-        <v>15.699999999999999</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>15.7</v>
+      </c>
       <c r="F34">
         <v>372</v>
       </c>
       <c r="H34">
-        <v>28.399999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="I34">
         <v>1.52</v>
@@ -1781,7 +1486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>41</v>
       </c>
@@ -1791,12 +1496,11 @@
       <c r="D35">
         <v>24</v>
       </c>
-      <c r="E35" s="1"/>
       <c r="F35">
         <v>864</v>
       </c>
       <c r="H35">
-        <v>43.299999999999997</v>
+        <v>43.3</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1805,7 +1509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -1815,7 +1519,6 @@
       <c r="D36">
         <v>33</v>
       </c>
-      <c r="E36" s="1"/>
       <c r="F36">
         <v>1452</v>
       </c>
@@ -1823,2446 +1526,2449 @@
         <v>55</v>
       </c>
       <c r="I36">
-        <v>0.79000000000000004</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.75390625"/>
-    <col customWidth="1" min="3" max="3" width="10.625"/>
-    <col customWidth="1" min="6" max="6" width="14.25390625"/>
-    <col customWidth="1" min="7" max="7" width="11.875"/>
-    <col customWidth="1" min="8" max="8" width="14.875"/>
-    <col min="9" max="11" style="2" width="9.00390625"/>
-    <col customWidth="1" min="16" max="16" width="14.125"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>2024</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>8192</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>6144</v>
       </c>
-      <c r="H2" s="4">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I32" si="0">H2*F2/1000</f>
         <v>5.2428800000000004</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J32" si="1">H2*G2/1000</f>
         <v>3.9321599999999997</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <f t="shared" ref="K2:K32" si="2">I2*J2</f>
         <v>20.6158430208</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>2024</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>8192</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="2">
         <v>6144</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>8.1920000000000002</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f t="shared" si="1"/>
         <v>6.1440000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <f t="shared" si="2"/>
         <v>50.331648000000001</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2023</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>8160</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>6144</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1.2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>9.7919999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>7.3727999999999989</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>72.194457599999993</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>200</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>2024</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>16320</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>12288</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>9.1392000000000007</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>6.8812800000000003</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>62.88939417600001</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>200</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>2023</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>16384</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>12288</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>9.8303999999999991</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>7.3727999999999989</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>72.477573119999988</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>200</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>2022</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>16320</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>12288</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>9.1392000000000007</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>6.8812800000000003</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>62.88939417600001</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>2022</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>16320</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>12288</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>9.1392000000000007</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>6.8812800000000003</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>62.88939417600001</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>200</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>2021</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>16384</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>12288</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>10.485760000000001</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>7.8643199999999993</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>82.463372083199999</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3" t="s">
+      <c r="L9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>108</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>2022</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>12000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>9000</v>
       </c>
-      <c r="H10" s="4">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>7.6799999999999997</v>
-      </c>
-      <c r="J10" s="5">
+        <v>7.68</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>5.7599999999999998</v>
-      </c>
-      <c r="K10" s="5">
+        <v>5.76</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>44.236799999999995</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="L10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>2020</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>8064</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>6048</v>
       </c>
-      <c r="H11" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>5.6447999999999992</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>4.2335999999999991</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>23.897825279999992</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>50</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>2021</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>8160</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>6144</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>5.2224000000000004</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>3.9321599999999997</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>20.535312384000001</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>2022</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>8160</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>6144</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>8.1600000000000001</v>
-      </c>
-      <c r="J13" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>6.1440000000000001</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>50.135040000000004</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="L13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>50</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>2022</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>8160</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>6144</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>8.1600000000000001</v>
-      </c>
-      <c r="J14" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>6.1440000000000001</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>50.135040000000004</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="L14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>108</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>2021</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>12000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>9000</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="J15" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="K15" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
-        <v>69.120000000000005</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3" t="s">
+        <v>69.12</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>108</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>2020</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>12000</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>9000</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="J16" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="K16" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>52.920000000000002</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+        <v>52.92</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>108</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>2020</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <v>12000</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="2">
         <v>9000</v>
       </c>
-      <c r="H17" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="H17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="J17" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="K17" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>69.120000000000005</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+        <v>69.12</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>108</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>2019</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>12032</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>9024</v>
       </c>
-      <c r="H18" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>9.6256000000000004</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
         <v>7.2192000000000007</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>69.489131520000015</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="L18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="4">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>2021</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>9280</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>6944</v>
       </c>
-      <c r="H19" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>7.4240000000000004</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>5.555200000000001</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>41.241804800000011</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="L19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="4">
-        <v>64</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>2020</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>9280</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>6944</v>
       </c>
-      <c r="H20" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>6.4960000000000004</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>4.8607999999999993</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>31.575756799999997</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
+      <c r="L20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="4">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>2020</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>9280</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>6944</v>
       </c>
-      <c r="H21" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>7.4240000000000004</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>5.555200000000001</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>41.241804800000011</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
+      <c r="L21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="4">
-        <v>64</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>2019</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>9280</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>6944</v>
       </c>
-      <c r="H22" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
         <v>7.4240000000000004</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>5.555200000000001</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>41.241804800000011</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
+      <c r="L22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>2020</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>8160</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>6144</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>1.2</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>9.7919999999999998</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>7.3727999999999989</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>72.194457599999993</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="L23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>2021</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>8160</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>6144</v>
       </c>
-      <c r="H24" s="4">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="H24" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>11.423999999999999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="3">
         <f t="shared" si="1"/>
         <v>8.6015999999999977</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
         <v>98.264678399999966</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
+      <c r="L24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>2023</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>8160</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>6144</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>8.1600000000000001</v>
-      </c>
-      <c r="J25" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>6.1440000000000001</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
         <v>50.135040000000004</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
+      <c r="L25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>48</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>2020</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>8064</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>6048</v>
       </c>
-      <c r="H26" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="H26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>5.6447999999999992</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="3">
         <f t="shared" si="1"/>
         <v>4.2335999999999991</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
         <v>23.897825279999992</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
+      <c r="L26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>48</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>2019</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>8000</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>6000</v>
       </c>
-      <c r="H27" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="H27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="J27" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="K27" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
-        <v>30.719999999999999</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
+        <v>30.72</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>48</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>2018</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>8000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>6000</v>
       </c>
-      <c r="H28" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="H28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="J28" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="1"/>
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="K28" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
-        <v>30.719999999999999</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+        <v>30.72</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>50</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>2024</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>8192</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>6144</v>
       </c>
-      <c r="H29" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="H29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>6.5536000000000003</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="3">
         <f t="shared" si="1"/>
         <v>4.9152000000000005</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
         <v>32.212254720000004</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
+      <c r="L29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>32</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>2020</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>6560</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>4920</v>
       </c>
-      <c r="H30" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="H30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>4.5919999999999996</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="3">
         <f t="shared" si="1"/>
         <v>3.444</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
         <v>15.814847999999998</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4" t="s">
+      <c r="L30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>32</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>2024</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>6560</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>4928</v>
       </c>
-      <c r="H31" s="4">
-        <v>0.64000000000000001</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>4.1983999999999995</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="3">
         <f t="shared" si="1"/>
         <v>3.1539200000000003</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="3">
         <f t="shared" si="2"/>
         <v>13.241417728</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
+      <c r="L31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>12</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>2024</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>4000</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>3000</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="3">
         <f t="shared" si="1"/>
         <v>3.3600000000000003</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="3">
         <f t="shared" si="2"/>
         <v>15.052800000000003</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="s">
+      <c r="L32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>50</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="4" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>50</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>50</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="4" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>50</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="4" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>53</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="8" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>50</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="4" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>50</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="4" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>50</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="4" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>50</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>50</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="4" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>48</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="4" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>12</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="4" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>50</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="8" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>48</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="8" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>48</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="8" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>50</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>50</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="8" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>50</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="4" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>52</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="4" t="s">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>50</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="4" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>10</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>12</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="8" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>50</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
         <v>1.22</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56" s="8" t="s">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>52</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57" s="8" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>12</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>12</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="4" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>32</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" s="4" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>48</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" s="4" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="4">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="4" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>50</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="4" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>32</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="4" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>50</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="8" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>40</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="8" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>50</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="4">
-        <v>64</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="2">
+        <v>64</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>16</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-    </row>
-    <row r="69" ht="14.25"/>
-    <row r="70" ht="14.25"/>
-    <row r="71" ht="14.25"/>
-    <row r="72" ht="14.25"/>
-    <row r="73" ht="14.25"/>
-    <row r="74" ht="14.25"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="2">
+        <v>32</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C3:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="12.875"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>174</v>
       </c>
@@ -4270,443 +3976,427 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="C4" s="9">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="C5" s="9">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="C6" s="9">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="C7" s="9">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="C8" s="9">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="C9" s="9">
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="C10" s="9">
+      <c r="D9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
-      <c r="C11" s="9">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
-      <c r="C12" s="9">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="C13" s="9">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
-      <c r="C14" s="9">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="C15" s="9">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
-      <c r="C16" s="9">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16">
         <v>21</v>
       </c>
-      <c r="D16" s="9">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="C17" s="9">
+      <c r="D16">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
         <v>21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="C18" s="9">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18">
         <v>21</v>
       </c>
-      <c r="D18" s="9">
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="C19" s="9">
+      <c r="D18">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19">
         <v>23</v>
       </c>
-      <c r="D19" s="9">
-        <v>1.5700000000000001</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="C20" s="9">
+      <c r="D19">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>23</v>
       </c>
-      <c r="D20" s="9">
-        <v>1.6000000000000001</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="C21" s="9">
+      <c r="D20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21">
         <v>23</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="C22" s="9">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>23</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
-      <c r="C23" s="9">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>23</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
-      <c r="C24" s="9">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="9">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="C25" s="9">
+      <c r="D24">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
-      <c r="C26" s="9">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>1.7</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
-      <c r="C27" s="9">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>1.8</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="C28" s="9">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28">
         <v>24</v>
       </c>
-      <c r="D28" s="9">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="C29" s="9">
+      <c r="D28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29">
         <v>24</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>1.95</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="C30" s="9">
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30">
         <v>24</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="9">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>24</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="C32" s="9">
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32">
         <v>24</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="C33" s="9">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>1.7</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="C34" s="9">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
-      <c r="C35" s="9">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
         <v>27</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="C36" s="9">
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
-      <c r="C37" s="9">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37">
         <v>65</v>
       </c>
-      <c r="D37" s="9">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="C38" s="9">
+      <c r="D37">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38">
         <v>67</v>
       </c>
-      <c r="D38" s="9">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="C39" s="9">
+      <c r="D38">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39">
         <v>70</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39">
         <v>1.8</v>
       </c>
     </row>
-    <row r="40" ht="14.25">
-      <c r="C40" s="9">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40">
         <v>70</v>
       </c>
-      <c r="D40" s="9">
-        <v>2.1000000000000001</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="C41" s="9">
+      <c r="D40">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41">
         <v>70</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>2.48</v>
       </c>
     </row>
-    <row r="42" ht="14.25">
-      <c r="C42" s="9">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42">
         <v>72</v>
       </c>
-      <c r="D42" s="2">
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="C43" s="9">
+      <c r="D42" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43">
         <v>72</v>
       </c>
-      <c r="D43" s="9">
-        <v>2.6000000000000001</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="C44" s="9">
+      <c r="D43">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44">
         <v>73</v>
       </c>
-      <c r="D44" s="9">
-        <v>2.6000000000000001</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="C45" s="9">
+      <c r="D44">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45">
         <v>85</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45">
         <v>2.27</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="C46" s="9" t="s">
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
-      <c r="C47" s="9">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47">
         <v>85</v>
       </c>
-      <c r="D47" s="9">
-        <v>2.6000000000000001</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="C48" s="9">
+      <c r="D47">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48">
         <v>90</v>
       </c>
-      <c r="D48" s="9">
-        <v>2.1000000000000001</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="C49" s="9">
+      <c r="D48">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>111</v>
+      </c>
+      <c r="D49">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50">
         <v>113</v>
       </c>
-      <c r="D49" s="9">
-        <v>2.7999999999999998</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="C50" s="9">
+      <c r="D50">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51">
         <v>120</v>
       </c>
-      <c r="D50" s="9">
-        <v>2.7999999999999998</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="C51" s="9">
+      <c r="D51">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52">
         <v>120</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="52" ht="14.25">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" ht="14.25"/>
-    <row r="54" ht="14.25">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" ht="14.25"/>
-    <row r="56" ht="14.25"/>
-    <row r="57" ht="14.25"/>
-    <row r="58" ht="14.25"/>
-    <row r="59" ht="14.25"/>
-    <row r="60" ht="14.25"/>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>135</v>
+      </c>
+      <c r="D53">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
-      <selection activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.00390625"/>
-    <col customWidth="1" min="2" max="21" width="7.33203125"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="21" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>180</v>
       </c>
@@ -4723,7 +4413,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4773,16 +4463,25 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>189</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D3" t="s">
         <v>122</v>
       </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>1.69</v>
+      </c>
       <c r="G3" t="s">
         <v>122</v>
       </c>
@@ -4795,11 +4494,20 @@
       <c r="J3" t="s">
         <v>190</v>
       </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>2.5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>197</v>
+      </c>
       <c r="S3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -4816,7 +4524,7 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>1.5700000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="s">
         <v>122</v>
@@ -4825,7 +4533,7 @@
         <v>85</v>
       </c>
       <c r="I4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="s">
         <v>190</v>
@@ -4840,7 +4548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -4866,7 +4574,7 @@
         <v>85</v>
       </c>
       <c r="I5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="s">
         <v>190</v>
@@ -4881,7 +4589,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -4898,7 +4606,7 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="s">
         <v>120</v>
@@ -4916,7 +4624,7 @@
         <v>100</v>
       </c>
       <c r="L6">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="s">
         <v>190</v>
@@ -4931,7 +4639,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -4972,10 +4680,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>197</v>
       </c>
@@ -4992,7 +4706,7 @@
         <v>70</v>
       </c>
       <c r="I8">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="s">
         <v>128</v>
@@ -5001,16 +4715,25 @@
         <v>135</v>
       </c>
       <c r="L8">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="s">
         <v>195</v>
       </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>2.4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>222</v>
+      </c>
       <c r="S8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -5036,7 +4759,7 @@
         <v>65</v>
       </c>
       <c r="I9">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="s">
         <v>164</v>
@@ -5045,7 +4768,7 @@
         <v>135</v>
       </c>
       <c r="L9">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="M9" t="s">
         <v>143</v>
@@ -5054,13 +4777,13 @@
         <v>21</v>
       </c>
       <c r="O9">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="P9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -5077,7 +4800,7 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="s">
         <v>125</v>
@@ -5086,7 +4809,7 @@
         <v>73</v>
       </c>
       <c r="I10">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="s">
         <v>195</v>
@@ -5095,7 +4818,7 @@
         <v>135</v>
       </c>
       <c r="L10">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="M10" t="s">
         <v>143</v>
@@ -5104,13 +4827,13 @@
         <v>21</v>
       </c>
       <c r="O10">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="P10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -5118,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
@@ -5136,7 +4859,7 @@
         <v>67</v>
       </c>
       <c r="I11">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="s">
         <v>151</v>
@@ -5145,7 +4868,7 @@
         <v>111</v>
       </c>
       <c r="L11">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="s">
         <v>145</v>
@@ -5160,7 +4883,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -5177,7 +4900,7 @@
         <v>23</v>
       </c>
       <c r="F12">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="s">
         <v>123</v>
@@ -5186,7 +4909,7 @@
         <v>73</v>
       </c>
       <c r="I12">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="s">
         <v>195</v>
@@ -5195,13 +4918,13 @@
         <v>21</v>
       </c>
       <c r="O12">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="P12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -5227,7 +4950,7 @@
         <v>120</v>
       </c>
       <c r="I13">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="s">
         <v>137</v>
@@ -5236,13 +4959,13 @@
         <v>23</v>
       </c>
       <c r="O13">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -5259,7 +4982,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5285,7 +5008,7 @@
         <v>113</v>
       </c>
       <c r="I15">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="s">
         <v>143</v>
@@ -5300,7 +5023,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -5326,7 +5049,7 @@
         <v>72</v>
       </c>
       <c r="I16">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="s">
         <v>215</v>
@@ -5341,7 +5064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -5367,13 +5090,13 @@
         <v>90</v>
       </c>
       <c r="I17">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>2.3999999999999999</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -5389,7 +5112,7 @@
       <c r="E18">
         <v>23</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>218</v>
       </c>
       <c r="G18" t="s">
@@ -5398,8 +5121,8 @@
       <c r="H18">
         <v>72</v>
       </c>
-      <c r="I18" s="2">
-        <v>2.3999999999999999</v>
+      <c r="I18" s="1">
+        <v>2.4</v>
       </c>
       <c r="J18" t="s">
         <v>171</v>
@@ -5408,13 +5131,13 @@
         <v>21</v>
       </c>
       <c r="O18">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -5431,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="s">
         <v>142</v>
@@ -5455,7 +5178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -5496,64 +5219,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F1E0246E3061C54F8458EBBE0C0F398F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c6f554bbf0205498782dff810431014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8c1a1db-4749-41cb-9a75-3b090167f9a8" xmlns:ns4="8693a6f0-2985-43e0-a9a8-162598fae3af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b56026a517fe72c323f2dbb367b76ca8" ns3:_="" ns4:_="">
     <xsd:import namespace="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
@@ -5792,10 +5464,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8693a6f0-2985-43e0-a9a8-162598fae3af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
+    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5818,20 +5518,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E950AC-A418-46BC-9530-A66FE778E6F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4E21EE-76DA-46D2-AE17-0A2998466252}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b8c1a1db-4749-41cb-9a75-3b090167f9a8"/>
-    <ds:schemaRef ds:uri="8693a6f0-2985-43e0-a9a8-162598fae3af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>